--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F33E99-1FF1-4544-94FF-12E20178898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE2F55-0020-412F-B72F-E9515D99CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
+    <sheet name="Nhân viên" sheetId="4" r:id="rId1"/>
+    <sheet name="Quản lý" sheetId="2" r:id="rId2"/>
+    <sheet name="Trang_tính2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -37,80 +44,47 @@
     <t>Lương</t>
   </si>
   <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Nhân Viên</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Minh</t>
-  </si>
-  <si>
-    <t>Lê Thị Hương</t>
-  </si>
-  <si>
-    <t>Trần Đức Anh</t>
-  </si>
-  <si>
-    <t>Phạm Quỳnh Mai</t>
-  </si>
-  <si>
-    <t>Hoàng Văn Long</t>
-  </si>
-  <si>
-    <t>Ngọc Trinh</t>
-  </si>
-  <si>
-    <t>Lý Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Mai Thị Lan</t>
-  </si>
-  <si>
-    <t>Vương Hải Nam</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hà</t>
-  </si>
-  <si>
-    <t>0934567890</t>
-  </si>
-  <si>
-    <t>0364123456</t>
-  </si>
-  <si>
-    <t>0945678912</t>
-  </si>
-  <si>
-    <t>0364234567</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>0364345678</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>0364456789</t>
-  </si>
-  <si>
-    <t>0999888777</t>
-  </si>
-  <si>
-    <t>0364567890</t>
+    <t>Lê Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>0147258369</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Thiên</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Mạnh</t>
+  </si>
+  <si>
+    <t>0123456123</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Đặng Gia Kiệt</t>
+  </si>
+  <si>
+    <t>0933119882</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Nga</t>
+  </si>
+  <si>
+    <t>Lê Đức Tính</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Hùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +105,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,33 +144,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,6 +198,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,181 +505,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195272F5-67A2-44F8-BD90-83D50B8A279A}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10">
+        <v>37257</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37258</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10">
+        <v>37502</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>37503</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10">
-        <v>36593</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10">
-        <v>37960</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2750000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10">
-        <v>36414</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>37439</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2650000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="10">
-        <v>37021</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10">
-        <v>38298</v>
-      </c>
-      <c r="D8" s="11">
-        <v>3800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10">
-        <v>37661</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>36750</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
-        <v>37352</v>
-      </c>
-      <c r="D11" s="11">
+        <v>37504</v>
+      </c>
+      <c r="D7" s="5">
         <v>3600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>37167</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2900000</v>
       </c>
     </row>
   </sheetData>
@@ -666,187 +617,219 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B4F6A-B40C-420D-9779-EC09845B94ED}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10">
+        <v>37343</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37368</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE66F0E-5236-4093-A247-469F92DE560B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10">
+        <v>37257</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37258</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10">
+        <v>37502</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>37503</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10">
-        <v>36593</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10">
-        <v>37960</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2750000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10">
-        <v>36414</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>37439</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2650000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="10">
-        <v>37021</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2450000</v>
+        <v>37504</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3600000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10">
-        <v>38298</v>
-      </c>
-      <c r="D8" s="11">
-        <v>3800000</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10">
-        <v>37661</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3400000</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>36750</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2300000</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
-        <v>37352</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3600000</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>37167</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2900000</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE2F55-0020-412F-B72F-E9515D99CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE306889-1032-429E-A119-A62BA7438BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhân viên" sheetId="4" r:id="rId1"/>
     <sheet name="Quản lý" sheetId="2" r:id="rId2"/>
     <sheet name="Trang_tính2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Nhân Viên</t>
   </si>
   <si>
+    <t>Mã NV</t>
+  </si>
+  <si>
     <t>Họ và tên</t>
   </si>
   <si>
@@ -44,47 +47,78 @@
     <t>Lương</t>
   </si>
   <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>Lê Đức Tính</t>
+  </si>
+  <si>
+    <t>0147258369</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Thiên</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Hùng</t>
+  </si>
+  <si>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Mạnh</t>
+  </si>
+  <si>
+    <t>0123456123</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>QL1</t>
+  </si>
+  <si>
+    <t>Đặng Gia Kiệt</t>
+  </si>
+  <si>
+    <t>0933119882</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>NV5</t>
+  </si>
+  <si>
     <t>Lê Thanh Tuấn</t>
-  </si>
-  <si>
-    <t>0147258369</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Thiên</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Mạnh</t>
-  </si>
-  <si>
-    <t>0123456123</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>Đặng Gia Kiệt</t>
-  </si>
-  <si>
-    <t>0933119882</t>
-  </si>
-  <si>
-    <t>Đỗ Thanh Nga</t>
-  </si>
-  <si>
-    <t>Lê Đức Tính</t>
-  </si>
-  <si>
-    <t>Hoàng Ngọc Hùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,85 +179,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,335 +520,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195272F5-67A2-44F8-BD90-83D50B8A279A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1" style="5"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1" style="8"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1" style="13"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="38.25" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10">
-        <v>37257</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>37258</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="12">
+        <v>37502</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10">
-        <v>37502</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12">
         <v>37503</v>
       </c>
-      <c r="D6" s="5">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>37504</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3600000</v>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B4F6A-B40C-420D-9779-EC09845B94ED}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="19" customWidth="1" style="2"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1" style="13"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12">
         <v>37343</v>
       </c>
-      <c r="D3" s="5">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10">
-        <v>37368</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10500000</v>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE66F0E-5236-4093-A247-469F92DE560B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D7"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="8.90625" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="20.453125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="18.453125" customWidth="1" style="2"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="17.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="18">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10">
-        <v>37257</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>37258</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="D5" s="12">
         <v>37502</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="7">
         <v>4600000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
+    <row r="6" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12">
         <v>37503</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="7">
         <v>3500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="7" ht="18">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12">
         <v>37504</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="7">
         <v>3600000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+    <row r="8" ht="18">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="18">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" ht="18">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="18">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="18">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE306889-1032-429E-A119-A62BA7438BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D965DFA0-D95E-4C65-96EB-269137F0D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhân viên" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nhân Viên</t>
   </si>
@@ -53,33 +53,42 @@
     <t>Lê Đức Tính</t>
   </si>
   <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>QL1</t>
+  </si>
+  <si>
+    <t>Đặng Gia Kiệt</t>
+  </si>
+  <si>
+    <t>0933119882</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
     <t>0147258369</t>
   </si>
   <si>
-    <t>3000000</t>
-  </si>
-  <si>
     <t>NV2</t>
   </si>
   <si>
     <t>Vũ Hoàng Thiên</t>
   </si>
   <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>4000000</t>
-  </si>
-  <si>
     <t>NV3</t>
   </si>
   <si>
     <t>Hoàng Ngọc Hùng</t>
   </si>
   <si>
-    <t>4600000</t>
-  </si>
-  <si>
     <t>NV4</t>
   </si>
   <si>
@@ -87,24 +96,6 @@
   </si>
   <si>
     <t>0123456123</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>QL1</t>
-  </si>
-  <si>
-    <t>Đặng Gia Kiệt</t>
-  </si>
-  <si>
-    <t>0933119882</t>
-  </si>
-  <si>
-    <t>10000000</t>
   </si>
   <si>
     <t>NV5</t>
@@ -118,20 +109,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -146,6 +130,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,34 +153,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -191,54 +165,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,112 +488,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195272F5-67A2-44F8-BD90-83D50B8A279A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.54296875" customWidth="1" style="5"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1" style="8"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1" style="13"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1" style="7"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" style="6"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" style="10"/>
+    <col min="5" max="5" width="18.140625" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="17.5">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
-        <v>37257</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="10">
+        <v>45203.0081548611</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12">
-        <v>37258</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
-        <v>37502</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
-        <v>37503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -641,59 +559,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B4F6A-B40C-420D-9779-EC09845B94ED}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="19" customWidth="1" style="2"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1" style="13"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" style="3"/>
+    <col min="3" max="3" width="19" customWidth="1" style="6"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" style="10"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" ht="17.5">
-      <c r="A2" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="12">
-        <v>37343</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10">
+        <v>37343.0151967593</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -713,155 +632,155 @@
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="8.90625" customWidth="1" style="2"/>
-    <col min="2" max="2" bestFit="1" width="20.453125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1" style="2"/>
-    <col min="4" max="4" width="18.453125" customWidth="1" style="2"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1" style="2"/>
+    <col min="1" max="1" bestFit="1" width="8.85546875" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="20.42578125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" style="2"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="18.75">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="17.5">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="18.75">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
-        <v>37257</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>37258</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>4000000</v>
       </c>
     </row>
-    <row r="5" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>37502</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>4600000</v>
       </c>
     </row>
-    <row r="6" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
+    <row r="6" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10">
         <v>37503</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3500000</v>
       </c>
     </row>
-    <row r="7" ht="18">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12">
+    <row r="7" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
         <v>37504</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3600000</v>
       </c>
     </row>
-    <row r="8" ht="18">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="18">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="18">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" ht="18">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" ht="18">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+    <row r="8" ht="18.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="18.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="18.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D965DFA0-D95E-4C65-96EB-269137F0D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C0959-E94C-4184-B5D7-A10BE8A68957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhân viên" sheetId="4" r:id="rId1"/>
     <sheet name="Quản lý" sheetId="2" r:id="rId2"/>
     <sheet name="Trang_tính2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Nhân Viên</t>
   </si>
@@ -47,40 +47,37 @@
     <t>Lương</t>
   </si>
   <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>QL1</t>
+  </si>
+  <si>
+    <t>Đặng Gia Kiệt</t>
+  </si>
+  <si>
+    <t>0933119882</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
     <t>NV1</t>
   </si>
   <si>
     <t>Lê Đức Tính</t>
   </si>
   <si>
+    <t>0147258369</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Thiên</t>
+  </si>
+  <si>
     <t>0123456789</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>QL1</t>
-  </si>
-  <si>
-    <t>Đặng Gia Kiệt</t>
-  </si>
-  <si>
-    <t>0933119882</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>0147258369</t>
-  </si>
-  <si>
-    <t>NV2</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Thiên</t>
   </si>
   <si>
     <t>NV3</t>
@@ -108,8 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,48 +161,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,70 +479,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195272F5-67A2-44F8-BD90-83D50B8A279A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" style="6"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" style="10"/>
-    <col min="5" max="5" width="18.140625" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10">
-        <v>45203.0081548611</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
+        <v>37502</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37503</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>37504</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3600000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -563,64 +621,63 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" style="3"/>
-    <col min="3" max="3" width="19" customWidth="1" style="6"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1" style="10"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>37343.015196759297</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37343.0151967593</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -629,164 +686,163 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="C16" activeCellId="1" sqref="A3:E7 C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="8.85546875" customWidth="1" style="2"/>
-    <col min="2" max="2" bestFit="1" width="20.42578125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" style="2"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
-        <v>37257</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="8">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37258</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
+        <v>37502</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10">
-        <v>37502</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="8">
+        <v>37503</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10">
-        <v>37503</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
         <v>37504</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>3600000</v>
       </c>
     </row>
-    <row r="8" ht="18.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="18.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Nhân Viên.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Quản lý" sheetId="2" r:id="rId2"/>
     <sheet name="Trang_tính2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nhân Viên</t>
   </si>
@@ -47,6 +47,60 @@
     <t>Lương</t>
   </si>
   <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>Lê Đức Tính</t>
+  </si>
+  <si>
+    <t>0147258369</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Thiên</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Hùng</t>
+  </si>
+  <si>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Mạnh</t>
+  </si>
+  <si>
+    <t>0123456123</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>NV5</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>3600000</t>
+  </si>
+  <si>
     <t>Quản lý</t>
   </si>
   <si>
@@ -60,52 +114,14 @@
   </si>
   <si>
     <t>10000000</t>
-  </si>
-  <si>
-    <t>NV1</t>
-  </si>
-  <si>
-    <t>Lê Đức Tính</t>
-  </si>
-  <si>
-    <t>0147258369</t>
-  </si>
-  <si>
-    <t>NV2</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Thiên</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>NV3</t>
-  </si>
-  <si>
-    <t>Hoàng Ngọc Hùng</t>
-  </si>
-  <si>
-    <t>NV4</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Mạnh</t>
-  </si>
-  <si>
-    <t>0123456123</t>
-  </si>
-  <si>
-    <t>NV5</t>
-  </si>
-  <si>
-    <t>Lê Thanh Tuấn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,42 +177,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,129 +505,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1" style="3"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1" style="6"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1" style="10"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="38.25" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="10">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8">
-        <v>37257</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>37502</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8">
-        <v>37258</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8">
-        <v>37502</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="10">
+        <v>37503</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8">
-        <v>37503</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>37504</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>37504</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3600000</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -623,61 +642,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1" style="3"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="19" customWidth="1" style="6"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1" style="10"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>37343.015196759297</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10">
+        <v>37343.0151967593</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -691,158 +711,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="8.81640625" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="20.453125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="18.453125" customWidth="1" style="2"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="17.5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="17.5">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>37257</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8">
-        <v>37257</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="10">
+        <v>37258</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" ht="18">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8">
-        <v>37258</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>37502</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" ht="18">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8">
-        <v>37502</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="10">
+        <v>37503</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" ht="18">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8">
-        <v>37503</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
         <v>37504</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>3600000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+    <row r="8" ht="18">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="18">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="18">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" ht="18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" ht="18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>